--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1500704.850841549</v>
+        <v>1579115.82359355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5983109.925159535</v>
+        <v>6440322.062466036</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.6976902451403</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +673,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>346.9297734197944</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -865,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -896,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>359.8133901984302</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.56453789817022</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1105,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>20.28369113775187</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>63.91196241212692</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>53.74650527181129</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>83.71046610478354</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>107.5742260334154</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>310.8326411358238</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>295.4196326200592</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170485</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>13.51446909089693</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20.07746487850314</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>231.0911655692586</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>85.55329631630661</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>214.3693806674597</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2248,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>102.5724179071755</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2609,7 +2611,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.9739924675</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436922</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>172.6623007436909</v>
+        <v>249.4112747763479</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3749,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>186.7520388614008</v>
+        <v>393.5369404076234</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>209.8316085772656</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>415.3476283574597</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>194.3013490646852</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.0148405224497</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C2" t="n">
-        <v>542.872367705873</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>457.8134868186265</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>428.0791460173257</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>404.2521204669375</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621483</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.771296621483</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.915842032516</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.773378611827</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.527658951884</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="L3" t="n">
-        <v>1992.21944446061</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M3" t="n">
-        <v>1992.21944446061</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N3" t="n">
-        <v>1992.21944446061</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O3" t="n">
-        <v>1992.21944446061</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4513,10 +4515,10 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2601.950780176799</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U4" t="n">
         <v>2356.071333755254</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.910269352854</v>
+        <v>1195.45039114996</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>832.0025222626568</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>2030.036085335214</v>
       </c>
       <c r="Y5" t="n">
-        <v>2617.209839837762</v>
+        <v>1621.749961634868</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>794.3063906495626</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4753,22 +4755,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2468.913059527977</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>2190.480058781082</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.524550651513</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.498146237804</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1386.106391571217</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.686720885325</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276921</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>977.3751454603448</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>541.4653606347892</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>107.6906157930844</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892766</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4841,13 +4843,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.817188761829</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D10" t="n">
-        <v>484.3594947663694</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E10" t="n">
-        <v>484.3594947663694</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5002,10 +5004,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1321.301445449862</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1321.301445449862</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>885.391660624306</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335138</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677765</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>56.12639965677765</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="N11" t="n">
-        <v>750.690595409401</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772709</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183742</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763053</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1321.301445449862</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677765</v>
+        <v>139.3803961537473</v>
       </c>
       <c r="K12" t="n">
-        <v>330.2377696303397</v>
+        <v>820.1139162241246</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.801965382963</v>
+        <v>820.1139162241246</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.801965382963</v>
+        <v>820.1139162241246</v>
       </c>
       <c r="N12" t="n">
-        <v>1024.801965382963</v>
+        <v>820.1139162241246</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.801965382963</v>
+        <v>820.1139162241246</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098748</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497163104</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677765</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677765</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1319.166405466011</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.166405466011</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>1319.166405466011</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>885.391660624306</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335138</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>750.690595409401</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>750.690595409401</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M14" t="n">
-        <v>750.690595409401</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N14" t="n">
-        <v>750.690595409401</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2572.894563071955</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2572.894563071955</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>2153.752099651265</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.465975950919</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723525</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2654.546840516893</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2408.667394095348</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>2130.234393348453</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.235445292023</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>382.0682546095385</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1216.418546567716</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E25" t="n">
-        <v>611.1385207805145</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F25" t="n">
-        <v>434.4314667422707</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
         <v>4550.100609912873</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2316.271008272081</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="29">
@@ -6482,7 +6484,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I34" t="n">
         <v>2496.382403636182</v>
@@ -6880,28 +6882,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496297</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6926,10 +6928,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,16 +6940,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
         <v>5113.04201353898</v>
@@ -6968,16 +6970,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.953402140615</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>925.8109293240379</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>489.9011444984825</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>56.12639965677765</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677765</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>750.690595409401</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>750.690595409401</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>750.690595409401</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>750.690595409401</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127231</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085826</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2617.681559746558</v>
+        <v>3365.434551232599</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.539096325869</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.252972625522</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723525</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K42" t="n">
-        <v>406.7483977834476</v>
+        <v>800.5672925496885</v>
       </c>
       <c r="L42" t="n">
-        <v>406.7483977834476</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="M42" t="n">
-        <v>406.7483977834476</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="N42" t="n">
-        <v>406.7483977834476</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="O42" t="n">
-        <v>406.7483977834476</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>933.0825370002241</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>760.520825483449</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>760.520825483449</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>760.520825483449</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>583.8137714452052</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>418.2224964710329</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>278.3203221614074</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360827</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007726</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719082</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>969.2083944398693</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.692261620782</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778427</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004208</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.12720797455</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2806.319982838882</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2647.078614136879</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2435.127494361863</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2156.694493614968</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V43" t="n">
-        <v>1869.738985485399</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1597.71258107169</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1352.320826405103</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>1124.901155719211</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1356.327836278711</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>918.1853634621348</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>918.1853634621348</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E44" t="n">
-        <v>484.4106186204299</v>
+        <v>810.7676834664296</v>
       </c>
       <c r="F44" t="n">
-        <v>56.54318902963765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963765</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>722.6273955810123</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.191591333636</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
-        <v>2111.755787086259</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838882</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>2610.055993884655</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>2190.913530463966</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.627406763619</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188009</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334562</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661516</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277677</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543861</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360074</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.143894520531</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486744</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112467</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744543</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287266</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617867</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617836</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679835</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413029</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651909</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.55586743113</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>877.7363890590668</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>705.1746775422918</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>539.2966847438145</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>369.5386809945517</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>192.8316269563079</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>189.6603729360827</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>189.6603729360827</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360827</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>276.2400581007726</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719082</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>969.2083944398693</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.692261620782</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778427</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004208</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.12720797455</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2784.902161544254</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2625.660792842251</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.781346420706</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.348345673811</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1814.392837544242</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.366433130533</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1296.974678463946</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1069.555007778054</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7976,14 +7978,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>566.3319231075541</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8146,7 +8148,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>88.52591951400984</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>651.9316575406125</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>19.74406431761214</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904667</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>651.9316575406125</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>282.6337518573322</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,7 +9418,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,25 +10825,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>651.9316575406125</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>419.9026561776751</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163986</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>111.2039336442349</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.7836298432839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>411.4732220987968</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>127.8996149962531</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.146865729424206</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>52.94985625022261</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>69.71657238081411</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>61.36294431725511</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>2.446659489829244</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>111.4236523045816</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>111.423652304583</v>
+        <v>34.67467827192598</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>214.0548611816762</v>
+        <v>7.269959635453631</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>33.58904338006371</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.08936903582804</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>206.5055509783919</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375398.8310325761</v>
+        <v>531879.2052239755</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375398.8310325762</v>
+        <v>531879.2052239755</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567174.2036764824</v>
+        <v>567174.2036764823</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567174.2036764824</v>
+        <v>567174.2036764823</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>567174.2036764824</v>
+        <v>567174.2036764825</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567174.2036764824</v>
+        <v>567174.2036764823</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375398.8310325761</v>
+        <v>531879.2052239755</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375398.8310325762</v>
+        <v>531879.2052239755</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178063</v>
@@ -26320,10 +26322,10 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.603241412</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661557</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030143</v>
@@ -26332,10 +26334,10 @@
         <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030141</v>
@@ -26344,16 +26346,16 @@
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661557</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661557</v>
+        <v>370553.6032414119</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045623</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.08170334076</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35185.48046690073</v>
+        <v>-35185.48046690064</v>
       </c>
       <c r="C6" t="n">
+        <v>188514.2181171441</v>
+      </c>
+      <c r="D6" t="n">
         <v>188514.2181171442</v>
       </c>
-      <c r="D6" t="n">
-        <v>188514.2181171441</v>
-      </c>
       <c r="E6" t="n">
-        <v>181490.3362552925</v>
+        <v>110058.6852672007</v>
       </c>
       <c r="F6" t="n">
-        <v>191661.3328557488</v>
+        <v>260724.4388389484</v>
       </c>
       <c r="G6" t="n">
-        <v>118242.5206211998</v>
+        <v>247212.1883947012</v>
       </c>
       <c r="H6" t="n">
         <v>276301.997567309</v>
       </c>
       <c r="I6" t="n">
-        <v>276301.9975673089</v>
+        <v>276301.997567309</v>
       </c>
       <c r="J6" t="n">
-        <v>101650.6488496028</v>
+        <v>101650.6488496029</v>
       </c>
       <c r="K6" t="n">
         <v>276301.9975673089</v>
@@ -26552,16 +26554,16 @@
         <v>276301.997567309</v>
       </c>
       <c r="M6" t="n">
-        <v>267812.9158639681</v>
+        <v>150550.9092316183</v>
       </c>
       <c r="N6" t="n">
-        <v>276301.9975673089</v>
+        <v>276301.997567309</v>
       </c>
       <c r="O6" t="n">
-        <v>191661.3328557488</v>
+        <v>260724.4388389484</v>
       </c>
       <c r="P6" t="n">
-        <v>191661.3328557488</v>
+        <v>260724.4388389484</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0647891018636</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.0647891018636</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.33888453491841</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>50.45407964317434</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>73.94765788998075</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.6387245651729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1369608195774</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>367.638724565173</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>369.842250023073</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>80.50874676570899</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.63709516081679e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -34696,14 +34698,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>566.3319231075541</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,10 +34865,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>88.52591951400984</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>651.9316575406125</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>19.74406431761214</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904667</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>651.9316575406125</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>282.6337518573322</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,7 +36138,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>-1.358033040607337e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37317,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>651.9316575406125</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>419.9026561776751</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163986</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579115.82359355</v>
+        <v>1578509.735964653</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797167</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>53.74650527181149</v>
       </c>
       <c r="G2" t="n">
-        <v>346.9297734197944</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>43.70143389869411</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>46.22530271040065</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -898,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>359.8133901984302</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>108.2795009662856</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>101.7706336613754</v>
       </c>
       <c r="U7" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,19 +1135,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>63.91196241212692</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>273.240038951026</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>107.5742260334154</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.8326411358238</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>206.7876113208406</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1533,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1578,13 +1578,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>220.8559842776802</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>13.51446909089693</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>20.07746487850314</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>53.06991172717048</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>85.55329631630661</v>
+        <v>18.05677735226122</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2259,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700999002</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2611,7 +2611,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>172.6623007436922</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>89.0533674875544</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>249.4112747763479</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>393.5369404076234</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>407.2684576718975</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>116.0222355487763</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3985,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>415.3476283574597</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398617</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.8253404203546</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C2" t="n">
-        <v>489.6828676037779</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D2" t="n">
-        <v>457.8134868186265</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E2" t="n">
-        <v>428.0791460173257</v>
+        <v>107.6906157930846</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2521204669375</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.124910905262</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2601.950780176799</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.45039114996</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C5" t="n">
-        <v>832.0025222626568</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>396.0927374371013</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>366.3583966358005</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.178548755904</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.036085335214</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y5" t="n">
-        <v>1621.749961634868</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="6">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>508.7772036299137</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1003.690796339814</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>878.2081529410129</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>705.6464414242379</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>539.7684486257606</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>370.0104448764978</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>193.303390838254</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5004,10 +5004,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1297.446442345892</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1070.02677166</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5041,22 +5041,22 @@
         <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>254.9523156162913</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>1089.302607574469</v>
       </c>
       <c r="L11" t="n">
-        <v>2438.435044982809</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>2992.672448660725</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
-        <v>2992.672448660725</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>3972.852115231031</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
         <v>3972.852115231031</v>
@@ -5068,25 +5068,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259699</v>
+        <v>4345.630789443536</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193525</v>
+        <v>3983.013839377362</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.810258604559</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.66779518387</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2834.381671483523</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>139.3803961537473</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>820.1139162241246</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>820.1139162241246</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>820.1139162241246</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>820.1139162241246</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>820.1139162241246</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>837.192263382995</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="E13" t="n">
         <v>664.6305518662199</v>
@@ -5226,25 +5226,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.011887927025</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.132441505481</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.699440758586</v>
+        <v>2060.804219997739</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.743932629016</v>
+        <v>1773.84871186817</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.717528215308</v>
+        <v>1501.822307454461</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1256.430552787874</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1029.010882101982</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055491</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238914</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
         <v>1645.940259684871</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>941.0874841438413</v>
+        <v>1053.872519855546</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5257726270662</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>602.6477798285889</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>432.8897760793262</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>256.1827220410823</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885365</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885365</v>
@@ -5463,25 +5463,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2164.699440758586</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1877.743932629016</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1605.717528215308</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="X16" t="n">
-        <v>1360.32577354872</v>
+        <v>1473.110809260425</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.906102862828</v>
+        <v>1245.691138574533</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1039.174348374283</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C19" t="n">
-        <v>866.6126368575082</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D19" t="n">
-        <v>700.7346440590309</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E19" t="n">
-        <v>530.9766403097681</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F19" t="n">
-        <v>354.2695862715243</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G19" t="n">
-        <v>188.678311297352</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5685,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y19" t="n">
-        <v>1230.99296709327</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>382.0682546095385</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1216.418546567716</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2291.478512820576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2291.478512820576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5925,37 +5925,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>719.1944197946839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>549.4364160454211</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>372.7293620071773</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
         <v>4550.100609912873</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6709,19 +6709,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4686.503377120805</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7162,43 +7162,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885365</v>
@@ -7450,13 +7450,13 @@
         <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>3365.434551232599</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>800.5672925496885</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
         <v>1757.009860797662</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>492.0902266030665</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G43" t="n">
         <v>322.3322228538038</v>
@@ -7602,19 +7602,19 @@
         <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2283.891072803477</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002201</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238914</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.310742413359</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>810.7676834664296</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>382.9002538756374</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
         <v>382.9002538756374</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.2661363957848</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790097</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805324</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312697</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885365</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885365</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.311093757424</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8148,7 +8148,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,7 +8698,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8768,16 +8768,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>19.74406431761214</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0782778761404</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.6337518573322</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9412,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,10 +10600,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10834,19 +10834,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>419.9026561776751</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.2039336442349</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>194.0192887222364</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.79268646174546</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>411.4732220987968</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>117.7661826744368</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.146865729424206</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>52.94985625022261</v>
+        <v>120.446375214268</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473393</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>111.4236523045816</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>81.78272691405292</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>34.67467827192598</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.269959635453631</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.682581114584877</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>48.19697732171628</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>14.08936903582804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>52.01701577190838</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531879.2052239755</v>
+        <v>531879.2052239754</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531879.2052239755</v>
+        <v>531879.2052239754</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567174.2036764823</v>
+        <v>567174.2036764825</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567174.2036764823</v>
+        <v>567174.2036764824</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>567174.2036764825</v>
+        <v>567174.2036764824</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567174.2036764823</v>
+        <v>567174.2036764824</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531879.2052239755</v>
+        <v>531879.2052239754</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531879.2052239755</v>
+        <v>531879.2052239754</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="E2" t="n">
         <v>370553.603241412</v>
@@ -26328,28 +26328,28 @@
         <v>370553.6032414119</v>
       </c>
       <c r="G2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="H2" t="n">
         <v>395143.1881030143</v>
       </c>
-      <c r="H2" t="n">
-        <v>395143.1881030142</v>
-      </c>
       <c r="I2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="M2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="N2" t="n">
         <v>395143.1881030142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>395143.1881030142</v>
-      </c>
-      <c r="N2" t="n">
-        <v>395143.1881030143</v>
       </c>
       <c r="O2" t="n">
         <v>370553.6032414119</v>
@@ -26429,25 +26429,25 @@
         <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>38563.8889201347</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
@@ -26456,10 +26456,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>38563.8889201347</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="P4" t="n">
-        <v>38563.8889201347</v>
+        <v>38563.88892013469</v>
       </c>
     </row>
     <row r="5">
@@ -26530,40 +26530,40 @@
         <v>188514.2181171442</v>
       </c>
       <c r="E6" t="n">
-        <v>110058.6852672007</v>
+        <v>109953.495644946</v>
       </c>
       <c r="F6" t="n">
-        <v>260724.4388389484</v>
+        <v>260619.2492166938</v>
       </c>
       <c r="G6" t="n">
-        <v>247212.1883947012</v>
+        <v>247188.9640553184</v>
       </c>
       <c r="H6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279264</v>
       </c>
       <c r="I6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279262</v>
       </c>
       <c r="J6" t="n">
-        <v>101650.6488496029</v>
+        <v>101627.4245102202</v>
       </c>
       <c r="K6" t="n">
-        <v>276301.9975673089</v>
+        <v>276278.7732279262</v>
       </c>
       <c r="L6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279262</v>
       </c>
       <c r="M6" t="n">
-        <v>150550.9092316183</v>
+        <v>150527.6848922356</v>
       </c>
       <c r="N6" t="n">
-        <v>276301.997567309</v>
+        <v>276278.7732279263</v>
       </c>
       <c r="O6" t="n">
-        <v>260724.4388389484</v>
+        <v>260619.2492166938</v>
       </c>
       <c r="P6" t="n">
-        <v>260724.4388389484</v>
+        <v>260619.2492166937</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="G2" t="n">
-        <v>50.45407964317434</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.358989813076</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>73.94765788998075</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>306.6715378201968</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>141.6500182959539</v>
       </c>
       <c r="U7" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>367.638724565173</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>127.5668610920511</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>135.3636110865063</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34868,16 +34868,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35488,16 +35488,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>19.74406431761214</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0782778761404</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.6337518573322</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36293,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.358033040607337e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>419.9026561776751</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
